--- a/sqld/sqld11-20.xlsx
+++ b/sqld/sqld11-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\project\study_source\sqld\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BE50E1-F025-4B8E-8E27-4DE9C332EAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3355D985-2DB6-42C1-A00D-2F453973E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="6" xr2:uid="{96370E29-6521-4228-9352-F73A6B3FE450}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="8" xr2:uid="{96370E29-6521-4228-9352-F73A6B3FE450}"/>
   </bookViews>
   <sheets>
     <sheet name="DDL(ALTER)" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="group by cube" sheetId="5" r:id="rId5"/>
     <sheet name="sql 수행" sheetId="6" r:id="rId6"/>
     <sheet name="계층쿼리" sheetId="7" r:id="rId7"/>
+    <sheet name="계층쿼리2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>3번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +66,10 @@
   </si>
   <si>
     <t>복사만 했음…17번 부터 다시 들어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전계조건을 설명한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,6 +645,544 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="3066667" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323766</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C3D84A-73D0-4DBA-7FA1-048B48ECDA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450566" y="595223"/>
+          <a:ext cx="9295238" cy="4790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133290</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B28AEA-04A1-13BC-3394-1DBD3268C5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450566" y="5555411"/>
+          <a:ext cx="9104762" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>404355</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>92177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F3F617-99E2-81DF-4230-F4CBA38C10B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450566" y="10714008"/>
+          <a:ext cx="8685714" cy="4457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>194831</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995D0D50-3293-6561-92A4-404E82B02E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3450566" y="15277381"/>
+          <a:ext cx="8476190" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>497416</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A879B186-1649-75F8-AD4E-AC95CB208673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4638095" cy="4028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40273</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FF6454-FD38-2A1F-2A5E-30E39FAD8420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4166558"/>
+          <a:ext cx="4180952" cy="2676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>616101</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>150912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD4ABA4-4275-376A-80C4-26298ADAA844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6944264"/>
+          <a:ext cx="4066667" cy="4714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635148</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>185792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4C2CF8-7CA9-DC22-13B0-79CE3BEF9FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11706045"/>
+          <a:ext cx="4085714" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>422695</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>189781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>279794</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C868AEA4-45F8-F254-B331-49240D2A01C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4563374" y="4157932"/>
+          <a:ext cx="8828571" cy="4333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>252701</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>69944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{024EB65B-A144-42BD-EE8E-1D445D944F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9914286" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>306940</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C18612-D7B0-3653-634F-A091475ACC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4166558"/>
+          <a:ext cx="4447619" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>573607</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>176329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B0E5F8-A10A-E5AB-7E29-1CE2077F5964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9126747"/>
+          <a:ext cx="4714286" cy="5533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1070,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A23522-DB0D-4F2F-842D-5076770B3365}">
-  <dimension ref="F2"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
@@ -1083,9 +1627,51 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20584DBA-BD7F-4E0B-B9BC-79B09066DE3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE1C47B-8A3B-4292-AC59-6235E7593A09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.65" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>